--- a/output/endemo2_specific_consumption_projections.xlsx
+++ b/output/endemo2_specific_consumption_projections.xlsx
@@ -3571,8 +3571,12 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>22.81</v>
+      </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>

--- a/output/endemo2_specific_consumption_projections.xlsx
+++ b/output/endemo2_specific_consumption_projections.xlsx
@@ -4633,10 +4633,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="C2" t="n">
-        <v>6.13</v>
+        <v>7.48</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4652,10 +4652,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="C3" t="n">
-        <v>6.13</v>
+        <v>8.34</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4690,10 +4690,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.39</v>
+        <v>2.45</v>
       </c>
       <c r="C5" t="n">
-        <v>6.13</v>
+        <v>4.62</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4728,10 +4728,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.39</v>
+        <v>2.97</v>
       </c>
       <c r="C7" t="n">
-        <v>6.13</v>
+        <v>8.94</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="C8" t="n">
-        <v>6.13</v>
+        <v>5.71</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4766,10 +4766,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="C9" t="n">
-        <v>6.13</v>
+        <v>6.28</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="C10" t="n">
-        <v>6.13</v>
+        <v>6.75</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4804,10 +4804,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.39</v>
+        <v>2.15</v>
       </c>
       <c r="C11" t="n">
-        <v>6.13</v>
+        <v>7.83</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="C12" t="n">
-        <v>6.13</v>
+        <v>5.99</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4842,10 +4842,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.39</v>
+        <v>3.38</v>
       </c>
       <c r="C13" t="n">
-        <v>6.13</v>
+        <v>10.32</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4880,10 +4880,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.39</v>
+        <v>1.9</v>
       </c>
       <c r="C15" t="n">
-        <v>6.13</v>
+        <v>7.02</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4937,10 +4937,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="C18" t="n">
-        <v>6.13</v>
+        <v>6.22</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4956,10 +4956,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.39</v>
+        <v>1.1</v>
       </c>
       <c r="C19" t="n">
-        <v>6.13</v>
+        <v>5.74</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="C20" t="n">
-        <v>6.13</v>
+        <v>7.16</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4994,10 +4994,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.39</v>
+        <v>3.36</v>
       </c>
       <c r="C21" t="n">
-        <v>6.13</v>
+        <v>4.31</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5013,10 +5013,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.39</v>
+        <v>2.36</v>
       </c>
       <c r="C22" t="n">
-        <v>6.13</v>
+        <v>7.02</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.39</v>
+        <v>2.25</v>
       </c>
       <c r="C23" t="n">
-        <v>6.13</v>
+        <v>6.4</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.39</v>
+        <v>1.91</v>
       </c>
       <c r="C24" t="n">
-        <v>6.13</v>
+        <v>5.94</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5070,10 +5070,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>6.01</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5184,10 +5184,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.39</v>
+        <v>0.99</v>
       </c>
       <c r="C31" t="n">
-        <v>6.13</v>
+        <v>5.41</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5241,10 +5241,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.39</v>
+        <v>3.38</v>
       </c>
       <c r="C34" t="n">
-        <v>6.13</v>
+        <v>4.12</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.39</v>
+        <v>0.99</v>
       </c>
       <c r="C35" t="n">
-        <v>6.13</v>
+        <v>5.41</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>

--- a/output/endemo2_specific_consumption_projections.xlsx
+++ b/output/endemo2_specific_consumption_projections.xlsx
@@ -3248,15 +3248,11 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+        <v>0.8700847</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>0</v>
       </c>
@@ -3267,15 +3263,11 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+        <v>-5.0731063</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>0</v>
       </c>
@@ -3286,15 +3278,11 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
+        <v>1.7631324</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>0</v>
       </c>
@@ -3306,10 +3294,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.99</v>
+        <v>2.9946903</v>
       </c>
       <c r="C5" t="n">
-        <v>7.47</v>
+        <v>7.4707965</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3324,15 +3312,11 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
+        <v>1.2620384</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>0</v>
       </c>
@@ -3344,14 +3328,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
+        <v>14.8435663</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>0</v>
       </c>
@@ -3363,14 +3343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
+        <v>3.0854156</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>0</v>
       </c>
@@ -3382,14 +3358,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
+        <v>2.0036631</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>0</v>
       </c>
@@ -3401,14 +3373,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
+        <v>3.8029549</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>0</v>
       </c>
@@ -3419,15 +3387,11 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.2147037</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -3438,15 +3402,11 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
+        <v>4.2137493</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>0</v>
       </c>
@@ -3457,15 +3417,11 @@
           <t>Latvia</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.1167503</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>0</v>
       </c>
@@ -3476,15 +3432,11 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
+        <v>0.09166059999999999</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -3495,15 +3447,11 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
+        <v>2.3427368</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>0</v>
       </c>
@@ -3514,15 +3462,11 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
+        <v>1.9525423</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>0</v>
       </c>
@@ -3534,10 +3478,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.99</v>
+        <v>2.9946903</v>
       </c>
       <c r="C17" t="n">
-        <v>7.47</v>
+        <v>7.4707965</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3552,15 +3496,11 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
+        <v>-5.249878</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>0</v>
       </c>
@@ -3571,15 +3511,11 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
+        <v>2.4530077</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>0</v>
       </c>
@@ -3591,10 +3527,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.99</v>
+        <v>2.9946903</v>
       </c>
       <c r="C20" t="n">
-        <v>7.47</v>
+        <v>7.4707965</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -3609,15 +3545,11 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0659781</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>0</v>
       </c>
@@ -3628,15 +3560,11 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
+        <v>2.6669077</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>0</v>
       </c>
@@ -3647,15 +3575,11 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
+        <v>1.8430915</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -3667,14 +3591,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C24" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
+        <v>6.2365862</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>0</v>
       </c>
@@ -3686,10 +3606,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.99</v>
+        <v>2.9946903</v>
       </c>
       <c r="C25" t="n">
-        <v>7.47</v>
+        <v>7.4707965</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3704,15 +3624,11 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
+        <v>0.0270267</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -3724,10 +3640,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.99</v>
+        <v>2.9946903</v>
       </c>
       <c r="C27" t="n">
-        <v>7.47</v>
+        <v>7.4707965</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3743,10 +3659,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.99</v>
+        <v>2.9946903</v>
       </c>
       <c r="C28" t="n">
-        <v>7.47</v>
+        <v>7.4707965</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3761,15 +3677,11 @@
           <t>North Macedonia</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.2755971</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
         <v>0</v>
       </c>
@@ -3781,10 +3693,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.99</v>
+        <v>2.9946903</v>
       </c>
       <c r="C30" t="n">
-        <v>7.47</v>
+        <v>7.4707965</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3799,15 +3711,11 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
+        <v>1.8578062</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>0</v>
       </c>
@@ -3819,10 +3727,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.99</v>
+        <v>2.9946903</v>
       </c>
       <c r="C32" t="n">
-        <v>7.47</v>
+        <v>7.4707965</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3838,14 +3746,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="C33" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
+        <v>-13.9284813</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>0</v>
       </c>
@@ -3856,15 +3760,11 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
+        <v>-0.7921222999999999</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>0</v>
       </c>
@@ -3875,15 +3775,11 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2.99</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
+        <v>0.4206817</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3941,16 +3837,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C2" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3960,16 +3856,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C3" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3979,16 +3875,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4</v>
+        <v>0.42092</v>
       </c>
       <c r="C4" t="n">
-        <v>2.85</v>
+        <v>2.97908</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3998,16 +3894,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C5" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4017,16 +3913,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
+        <v>0.42092</v>
       </c>
       <c r="C6" t="n">
-        <v>2.85</v>
+        <v>2.97908</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4036,16 +3932,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C7" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4055,16 +3951,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C8" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4074,16 +3970,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.46</v>
+        <v>0.42092</v>
       </c>
       <c r="C9" t="n">
-        <v>3.29</v>
+        <v>2.97908</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4093,16 +3989,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C10" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4112,16 +4008,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C11" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4131,16 +4027,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4</v>
+        <v>0.42092</v>
       </c>
       <c r="C12" t="n">
-        <v>2.85</v>
+        <v>2.97908</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4150,16 +4046,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C13" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4169,16 +4065,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C14" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4188,16 +4084,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C15" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4207,16 +4103,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C16" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4226,16 +4122,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.38</v>
+        <v>0.42092</v>
       </c>
       <c r="C17" t="n">
-        <v>2.67</v>
+        <v>2.97908</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4245,16 +4141,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.38</v>
+        <v>0.42092</v>
       </c>
       <c r="C18" t="n">
-        <v>2.72</v>
+        <v>2.97908</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4264,16 +4160,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C19" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4283,16 +4179,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C20" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4302,16 +4198,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C21" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4321,16 +4217,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C22" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4340,16 +4236,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C23" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4359,16 +4255,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C24" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4378,16 +4274,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4</v>
+        <v>0.42092</v>
       </c>
       <c r="C25" t="n">
-        <v>2.8</v>
+        <v>2.97908</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4397,16 +4293,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C26" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4416,16 +4312,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C27" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4435,16 +4331,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C28" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4454,16 +4350,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C29" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4473,16 +4369,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C30" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4492,16 +4388,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C31" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4511,16 +4407,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C32" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4530,16 +4426,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C33" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4549,16 +4445,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C34" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4568,16 +4464,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.42</v>
+        <v>0.42092</v>
       </c>
       <c r="C35" t="n">
-        <v>2.98</v>
+        <v>2.97908</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4633,16 +4529,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.58</v>
+        <v>1.3898961</v>
       </c>
       <c r="C2" t="n">
-        <v>7.48</v>
+        <v>6.1331626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4652,16 +4548,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.38</v>
+        <v>1.3898961</v>
       </c>
       <c r="C3" t="n">
-        <v>8.34</v>
+        <v>6.1331626</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4671,16 +4567,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C4" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4690,16 +4586,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.45</v>
+        <v>1.3898961</v>
       </c>
       <c r="C5" t="n">
-        <v>4.62</v>
+        <v>6.1331626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4709,16 +4605,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C6" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4728,16 +4624,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.97</v>
+        <v>1.3898961</v>
       </c>
       <c r="C7" t="n">
-        <v>8.94</v>
+        <v>6.1331626</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4747,16 +4643,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.34</v>
+        <v>1.3898961</v>
       </c>
       <c r="C8" t="n">
-        <v>5.71</v>
+        <v>6.1331626</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -4766,16 +4662,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.29</v>
+        <v>1.3898961</v>
       </c>
       <c r="C9" t="n">
-        <v>6.28</v>
+        <v>6.1331626</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4785,16 +4681,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.44</v>
+        <v>1.3898961</v>
       </c>
       <c r="C10" t="n">
-        <v>6.75</v>
+        <v>6.1331626</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4804,16 +4700,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.15</v>
+        <v>1.3898961</v>
       </c>
       <c r="C11" t="n">
-        <v>7.83</v>
+        <v>6.1331626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4823,16 +4719,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.13</v>
+        <v>1.3898961</v>
       </c>
       <c r="C12" t="n">
-        <v>5.99</v>
+        <v>6.1331626</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4842,16 +4738,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.38</v>
+        <v>1.3898961</v>
       </c>
       <c r="C13" t="n">
-        <v>10.32</v>
+        <v>6.1331626</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4861,16 +4757,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C14" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4880,16 +4776,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.9</v>
+        <v>1.3898961</v>
       </c>
       <c r="C15" t="n">
-        <v>7.02</v>
+        <v>6.1331626</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4899,16 +4795,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C16" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4918,16 +4814,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C17" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4937,16 +4833,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.69</v>
+        <v>1.3898961</v>
       </c>
       <c r="C18" t="n">
-        <v>6.22</v>
+        <v>6.1331626</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4956,16 +4852,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.1</v>
+        <v>1.3898961</v>
       </c>
       <c r="C19" t="n">
-        <v>5.74</v>
+        <v>6.1331626</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4975,16 +4871,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.18</v>
+        <v>1.3898961</v>
       </c>
       <c r="C20" t="n">
-        <v>7.16</v>
+        <v>6.1331626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4994,16 +4890,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.36</v>
+        <v>1.3898961</v>
       </c>
       <c r="C21" t="n">
-        <v>4.31</v>
+        <v>6.1331626</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5013,16 +4909,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.36</v>
+        <v>1.3898961</v>
       </c>
       <c r="C22" t="n">
-        <v>7.02</v>
+        <v>6.1331626</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5032,16 +4928,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.25</v>
+        <v>1.3898961</v>
       </c>
       <c r="C23" t="n">
-        <v>6.4</v>
+        <v>6.1331626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5051,16 +4947,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.91</v>
+        <v>1.3898961</v>
       </c>
       <c r="C24" t="n">
-        <v>5.94</v>
+        <v>6.1331626</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5070,16 +4966,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.28</v>
+        <v>1.3898961</v>
       </c>
       <c r="C25" t="n">
-        <v>6.01</v>
+        <v>6.1331626</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -5089,16 +4985,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C26" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5108,16 +5004,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C27" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5127,16 +5023,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C28" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5146,16 +5042,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C29" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5165,16 +5061,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C30" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5184,16 +5080,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.99</v>
+        <v>1.3898961</v>
       </c>
       <c r="C31" t="n">
-        <v>5.41</v>
+        <v>6.1331626</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5203,16 +5099,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C32" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5222,16 +5118,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.39</v>
+        <v>1.3898961</v>
       </c>
       <c r="C33" t="n">
-        <v>6.13</v>
+        <v>6.1331626</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5241,16 +5137,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.38</v>
+        <v>1.3898961</v>
       </c>
       <c r="C34" t="n">
-        <v>4.12</v>
+        <v>6.1331626</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5260,16 +5156,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.99</v>
+        <v>1.3898961</v>
       </c>
       <c r="C35" t="n">
-        <v>5.41</v>
+        <v>6.1331626</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6026,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6045,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6064,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6083,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6102,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6121,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6140,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6159,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6178,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6197,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6216,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6235,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6254,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6273,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6292,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -6311,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -6330,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -6349,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -6368,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -6387,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -6406,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -6425,7 +6321,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6444,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6463,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6482,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6501,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6520,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6539,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6558,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6577,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6596,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6615,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6634,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6653,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6718,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6737,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6756,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6775,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6794,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6813,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6832,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6851,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6870,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6889,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6908,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6927,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6946,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6965,7 +6861,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6984,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7003,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7022,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7041,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7060,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7079,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7098,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7117,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7136,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7155,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -7174,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -7193,7 +7089,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7212,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7231,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -7250,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7269,7 +7165,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7288,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -7307,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7326,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7345,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7410,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7429,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7448,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7467,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -7486,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7505,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -7524,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -7543,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7562,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -7581,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7600,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -7619,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7638,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7657,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7676,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7695,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7714,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7733,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7752,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7771,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7790,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7809,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7828,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7847,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -7866,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -7885,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7904,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7923,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -7942,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7961,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7980,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -7999,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -8018,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8037,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8102,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8121,7 +8017,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8140,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8159,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8178,7 +8074,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8197,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -8216,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -8235,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -8254,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -8273,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -8292,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8311,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -8330,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8349,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8368,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -8387,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -8406,7 +8302,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -8425,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -8444,7 +8340,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -8463,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -8482,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -8501,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -8520,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8539,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -8558,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8577,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8596,7 +8492,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8615,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -8634,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8653,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -8672,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8691,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -8710,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -8729,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/endemo2_specific_consumption_projections.xlsx
+++ b/output/endemo2_specific_consumption_projections.xlsx
@@ -3248,9 +3248,11 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>3.6770716</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.8700847</v>
+        <v>10.4493092</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
@@ -3263,9 +3265,11 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>3.8431654</v>
+      </c>
       <c r="C3" t="n">
-        <v>-5.0731063</v>
+        <v>21.0865803</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
@@ -3278,9 +3282,11 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>7.8961658</v>
+      </c>
       <c r="C4" t="n">
-        <v>1.7631324</v>
+        <v>24.9691487</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
@@ -3294,14 +3300,12 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.9946903</v>
+        <v>2.7493126</v>
       </c>
       <c r="C5" t="n">
-        <v>7.4707965</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
+        <v>3.9613209</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -3312,9 +3316,11 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>3.4504604</v>
+      </c>
       <c r="C6" t="n">
-        <v>1.2620384</v>
+        <v>6.6732969</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
@@ -3330,7 +3336,9 @@
       <c r="B7" t="n">
         <v>14.8435663</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>4.3620868</v>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>0</v>
@@ -3345,7 +3353,9 @@
       <c r="B8" t="n">
         <v>3.0854156</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>3.6701993</v>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>0</v>
@@ -3360,7 +3370,9 @@
       <c r="B9" t="n">
         <v>2.0036631</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>5.4564957</v>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>0</v>
@@ -3375,7 +3387,9 @@
       <c r="B10" t="n">
         <v>3.8029549</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>6.5406227</v>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>0</v>
@@ -3387,9 +3401,11 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>2.1554668</v>
+      </c>
       <c r="C11" t="n">
-        <v>-0.2147037</v>
+        <v>1.9343046</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
@@ -3402,9 +3418,11 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>3.2669837</v>
+      </c>
       <c r="C12" t="n">
-        <v>4.2137493</v>
+        <v>5.8615834</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
@@ -3417,9 +3435,11 @@
           <t>Latvia</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>-1.5730766</v>
+      </c>
       <c r="C13" t="n">
-        <v>-0.1167503</v>
+        <v>-0.9853803</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
@@ -3432,9 +3452,11 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>18.3928806</v>
+      </c>
       <c r="C14" t="n">
-        <v>0.09166059999999999</v>
+        <v>16.0873723</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
@@ -3447,9 +3469,11 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>3.8713396</v>
+      </c>
       <c r="C15" t="n">
-        <v>2.3427368</v>
+        <v>8.7933913</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
@@ -3462,9 +3486,11 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>3.3037158</v>
+      </c>
       <c r="C16" t="n">
-        <v>1.9525423</v>
+        <v>5.7348456</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
@@ -3478,14 +3504,12 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.9946903</v>
+        <v>3.2516518</v>
       </c>
       <c r="C17" t="n">
-        <v>7.4707965</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
+        <v>10.2305804</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>0</v>
       </c>
@@ -3496,9 +3520,11 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>2.8585616</v>
+      </c>
       <c r="C18" t="n">
-        <v>-5.249878</v>
+        <v>6.4040938</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
@@ -3511,9 +3537,11 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>5.1163425</v>
+      </c>
       <c r="C19" t="n">
-        <v>2.4530077</v>
+        <v>17.7594201</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
@@ -3527,14 +3555,12 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.9946903</v>
+        <v>5.5030878</v>
       </c>
       <c r="C20" t="n">
-        <v>7.4707965</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
+        <v>8.700299899999999</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -3545,9 +3571,11 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>3.0226693</v>
+      </c>
       <c r="C21" t="n">
-        <v>0.0659781</v>
+        <v>7.4471963</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
@@ -3560,9 +3588,11 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>4.9562555</v>
+      </c>
       <c r="C22" t="n">
-        <v>2.6669077</v>
+        <v>20.1476858</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
@@ -3575,9 +3605,11 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>6.2428234</v>
+      </c>
       <c r="C23" t="n">
-        <v>1.8430915</v>
+        <v>17.6932619</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
@@ -3593,7 +3625,9 @@
       <c r="B24" t="n">
         <v>6.2365862</v>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="n">
+        <v>14.5233804</v>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>0</v>
@@ -3606,14 +3640,12 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.9946903</v>
+        <v>14.0802571</v>
       </c>
       <c r="C25" t="n">
-        <v>7.4707965</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
+        <v>11.7756491</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>0</v>
       </c>
@@ -3624,9 +3656,11 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>11.4523993</v>
+      </c>
       <c r="C26" t="n">
-        <v>0.0270267</v>
+        <v>6.4765879</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
@@ -3677,9 +3711,11 @@
           <t>North Macedonia</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>0.6250278</v>
+      </c>
       <c r="C29" t="n">
-        <v>-0.2755971</v>
+        <v>2.4420417</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
@@ -3711,9 +3747,11 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>3.8198693</v>
+      </c>
       <c r="C31" t="n">
-        <v>1.8578062</v>
+        <v>6.9261068</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
@@ -3760,9 +3798,11 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>2.6851441</v>
+      </c>
       <c r="C34" t="n">
-        <v>-0.7921222999999999</v>
+        <v>-6.8902</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
@@ -3775,9 +3815,11 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="n">
+        <v>21.0227329</v>
+      </c>
       <c r="C35" t="n">
-        <v>0.4206817</v>
+        <v>13.0235623</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">

--- a/output/endemo2_specific_consumption_projections.xlsx
+++ b/output/endemo2_specific_consumption_projections.xlsx
@@ -3249,12 +3249,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.6770716</v>
+        <v>3.70179780381</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4493092</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>10.296678571059</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
@@ -3266,12 +3268,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.8431654</v>
+        <v>3.912801029183</v>
       </c>
       <c r="C3" t="n">
-        <v>21.0865803</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>21.880200560139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
@@ -3283,12 +3287,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.8961658</v>
+        <v>7.885903670996</v>
       </c>
       <c r="C4" t="n">
-        <v>24.9691487</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>24.868462576785</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
@@ -3300,12 +3306,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.7493126</v>
+        <v>2.727868101063</v>
       </c>
       <c r="C5" t="n">
-        <v>3.9613209</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>3.763599152711</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -3317,12 +3325,14 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.4504604</v>
+        <v>3.431908146809</v>
       </c>
       <c r="C6" t="n">
-        <v>6.6732969</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>6.635476847929</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
@@ -3334,12 +3344,14 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.8435663</v>
+        <v>14.994269705273</v>
       </c>
       <c r="C7" t="n">
-        <v>4.3620868</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>4.559949701541</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
@@ -3351,12 +3363,14 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.0854156</v>
+        <v>3.033003614842</v>
       </c>
       <c r="C8" t="n">
-        <v>3.6701993</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>3.650595717278</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
@@ -3368,12 +3382,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.0036631</v>
+        <v>2.008297157096</v>
       </c>
       <c r="C9" t="n">
-        <v>5.4564957</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>5.537623371892</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
@@ -3385,12 +3401,14 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.8029549</v>
+        <v>3.828234237744</v>
       </c>
       <c r="C10" t="n">
-        <v>6.5406227</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>6.632690200563</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
@@ -3402,12 +3420,14 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.1554668</v>
+        <v>2.203260542289</v>
       </c>
       <c r="C11" t="n">
-        <v>1.9343046</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>2.016655523388</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
@@ -3419,12 +3439,14 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.2669837</v>
+        <v>3.255684611193</v>
       </c>
       <c r="C12" t="n">
-        <v>5.8615834</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>5.836446991391</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
@@ -3436,12 +3458,14 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.5730766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9853803</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
@@ -3453,12 +3477,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.3928806</v>
+        <v>16.900208051391</v>
       </c>
       <c r="C14" t="n">
-        <v>16.0873723</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>16.27493192542</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -3470,12 +3496,14 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.8713396</v>
+        <v>3.935004225548</v>
       </c>
       <c r="C15" t="n">
-        <v>8.7933913</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>8.783221028129001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
@@ -3487,12 +3515,14 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.3037158</v>
+        <v>3.292797835025</v>
       </c>
       <c r="C16" t="n">
-        <v>5.7348456</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>5.722414507206</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
@@ -3504,12 +3534,14 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.2516518</v>
+        <v>3.264294606093</v>
       </c>
       <c r="C17" t="n">
-        <v>10.2305804</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>10.20499056547</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
@@ -3521,12 +3553,14 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.8585616</v>
+        <v>2.877348880723</v>
       </c>
       <c r="C18" t="n">
-        <v>6.4040938</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>6.584127129136</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
@@ -3538,12 +3572,14 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.1163425</v>
+        <v>5.086326162223</v>
       </c>
       <c r="C19" t="n">
-        <v>17.7594201</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>17.831986095087</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
@@ -3555,12 +3591,14 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.5030878</v>
+        <v>5.602795956783</v>
       </c>
       <c r="C20" t="n">
-        <v>8.700299899999999</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>9.066451183926</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -3572,12 +3610,14 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.0226693</v>
+        <v>3.046888646976</v>
       </c>
       <c r="C21" t="n">
-        <v>7.4471963</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>7.446027371944</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
@@ -3589,12 +3629,14 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.9562555</v>
+        <v>4.921403167672</v>
       </c>
       <c r="C22" t="n">
-        <v>20.1476858</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>19.876389962204</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
@@ -3606,12 +3648,14 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.2428234</v>
+        <v>6.262872904277</v>
       </c>
       <c r="C23" t="n">
-        <v>17.6932619</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>17.76790957815</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -3623,12 +3667,14 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.2365862</v>
+        <v>6.209678077252</v>
       </c>
       <c r="C24" t="n">
-        <v>14.5233804</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>14.52685264113</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
@@ -3640,12 +3686,14 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.0802571</v>
+        <v>14.188280019771</v>
       </c>
       <c r="C25" t="n">
-        <v>11.7756491</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>11.898159210155</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
@@ -3657,12 +3705,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11.4523993</v>
+        <v>11.521456568215</v>
       </c>
       <c r="C26" t="n">
-        <v>6.4765879</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>6.408607878133</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -3674,10 +3724,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="C27" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3693,10 +3743,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="C28" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3712,12 +3762,14 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6250278</v>
+        <v>0.561635567418</v>
       </c>
       <c r="C29" t="n">
-        <v>2.4420417</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>2.389627444573</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
@@ -3729,10 +3781,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="C30" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3748,12 +3800,14 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.8198693</v>
+        <v>3.819869337975</v>
       </c>
       <c r="C31" t="n">
-        <v>6.9261068</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>6.926106787373</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
@@ -3765,10 +3819,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="C32" t="n">
-        <v>7.4707965</v>
+        <v>7.470796460177</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3784,10 +3838,14 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-13.9284813</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
@@ -3799,12 +3857,14 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.6851441</v>
+        <v>2.715597004453</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.8902</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
@@ -3816,12 +3876,14 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.0227329</v>
+        <v>20.963610949203</v>
       </c>
       <c r="C35" t="n">
-        <v>13.0235623</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>13.079944754009</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -4571,10 +4633,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C2" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4590,10 +4652,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C3" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -4609,10 +4671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C4" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4628,10 +4690,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C5" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4647,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C6" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4666,10 +4728,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C7" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4685,10 +4747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C8" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4704,10 +4766,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C9" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4723,10 +4785,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C10" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4742,10 +4804,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C11" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4761,10 +4823,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C12" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4780,10 +4842,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C13" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4799,10 +4861,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C14" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4818,10 +4880,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C15" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4837,10 +4899,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C16" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4856,10 +4918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C17" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4875,10 +4937,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C18" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4894,10 +4956,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C19" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4913,10 +4975,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C20" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4932,10 +4994,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C21" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4951,10 +5013,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C22" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4970,10 +5032,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C23" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4989,10 +5051,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C24" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5008,10 +5070,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C25" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5027,10 +5089,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C26" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5046,10 +5108,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C27" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5065,10 +5127,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C28" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5084,10 +5146,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C29" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5103,10 +5165,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C30" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5122,10 +5184,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C31" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5141,10 +5203,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C32" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -5160,10 +5222,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C33" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -5179,10 +5241,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C34" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -5198,10 +5260,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="C35" t="n">
-        <v>6.1331626</v>
+        <v>6.133162642233</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>

--- a/output/endemo2_specific_consumption_projections.xlsx
+++ b/output/endemo2_specific_consumption_projections.xlsx
@@ -7,21 +7,24 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="steel_prim" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="steel_sec" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="alu_prim" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="alu_sec" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="copper_prim" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="copper_sec" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chlorine" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ammonia_classic" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="methanol_classic" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ethylene_classic" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="propylene_classic" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aromate_classic" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="paper" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cement" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="glass" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="alu_prim" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="alu_sec" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="copper_prim" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="copper_sec" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="chlorine" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ammonia" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="methanol" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ethylene" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="propylene" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aromate" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ammonia_classic" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="methanol_classic" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ethylene_classic" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="propylene_classic" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aromate_classic" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="paper" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cement" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="glass" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,10 +484,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C2" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -500,10 +503,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C3" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -519,10 +522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C4" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -538,10 +541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C5" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -557,10 +560,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C6" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -576,10 +579,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C7" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -595,10 +598,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -614,10 +617,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C9" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -633,10 +636,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C10" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -652,10 +655,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C11" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -671,10 +674,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C12" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -690,10 +693,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C13" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -709,10 +712,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C14" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -728,10 +731,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C15" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -747,10 +750,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C16" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -766,10 +769,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C17" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -785,10 +788,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C18" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -804,10 +807,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C19" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -823,10 +826,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C20" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -842,10 +845,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C21" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -861,10 +864,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C22" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -880,10 +883,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C23" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -899,10 +902,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C24" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -918,10 +921,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C25" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -937,10 +940,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C26" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -956,10 +959,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C27" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -975,10 +978,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C28" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -994,10 +997,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C29" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1013,10 +1016,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C30" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1032,10 +1035,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C31" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1051,10 +1054,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C32" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1070,10 +1073,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C33" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1089,10 +1092,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C34" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1108,10 +1111,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.82</v>
+        <v>52.2</v>
       </c>
       <c r="C35" t="n">
-        <v>19.39</v>
+        <v>3.27</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1173,13 +1176,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -1192,13 +1195,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1211,13 +1214,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1230,13 +1233,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C5" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1249,13 +1252,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1268,13 +1271,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1287,13 +1290,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C8" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1306,13 +1309,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1325,13 +1328,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C10" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1344,13 +1347,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C11" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1363,13 +1366,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C12" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1382,13 +1385,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C13" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1401,13 +1404,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C14" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1420,13 +1423,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C15" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1439,13 +1442,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C16" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1458,13 +1461,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1477,13 +1480,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C18" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1496,13 +1499,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C19" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1515,13 +1518,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C20" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1534,13 +1537,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C21" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1553,13 +1556,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C22" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1572,13 +1575,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C23" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1591,13 +1594,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C24" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1610,13 +1613,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C25" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1629,13 +1632,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C26" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1648,13 +1651,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C27" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1667,13 +1670,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C28" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1686,13 +1689,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C29" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1705,13 +1708,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C30" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1724,13 +1727,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C31" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -1743,13 +1746,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C32" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1762,13 +1765,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C33" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1781,13 +1784,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C34" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1800,13 +1803,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.8</v>
+        <v>28.22</v>
       </c>
       <c r="C35" t="n">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>97.5142476</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1865,10 +1868,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1884,10 +1887,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1903,10 +1906,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1922,10 +1925,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C5" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1941,10 +1944,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1960,10 +1963,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1979,10 +1982,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C8" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1998,10 +2001,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2017,10 +2020,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C10" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2036,10 +2039,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C11" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2055,10 +2058,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C12" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2074,10 +2077,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C13" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2093,10 +2096,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C14" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2112,10 +2115,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C15" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2131,10 +2134,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C16" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2150,10 +2153,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2169,10 +2172,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C18" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2188,10 +2191,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C19" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2207,10 +2210,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C20" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2226,10 +2229,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C21" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2245,10 +2248,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C22" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2264,10 +2267,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C23" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2283,10 +2286,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C24" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2302,10 +2305,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C25" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2321,10 +2324,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C26" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2340,10 +2343,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C27" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2359,10 +2362,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C28" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2378,10 +2381,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C29" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2397,10 +2400,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C30" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2416,10 +2419,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C31" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2435,10 +2438,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C32" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2454,10 +2457,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C33" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2473,10 +2476,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C34" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2492,10 +2495,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="C35" t="n">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2557,10 +2560,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2576,10 +2579,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2595,10 +2598,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2614,10 +2617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -2633,10 +2636,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2652,10 +2655,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -2671,10 +2674,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2690,10 +2693,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -2709,10 +2712,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C10" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -2728,10 +2731,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C11" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -2747,10 +2750,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C12" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -2766,10 +2769,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C13" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -2785,10 +2788,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C14" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2804,10 +2807,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C15" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2823,10 +2826,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C16" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2842,10 +2845,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2861,10 +2864,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C18" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2880,10 +2883,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C19" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2899,10 +2902,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C20" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2918,10 +2921,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C21" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2937,10 +2940,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C22" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2956,10 +2959,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C23" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2975,10 +2978,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C24" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2994,10 +2997,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C25" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3013,10 +3016,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C26" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3032,10 +3035,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C27" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3051,10 +3054,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C28" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3070,10 +3073,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C29" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3089,10 +3092,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C30" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3108,10 +3111,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C31" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3127,10 +3130,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C32" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3146,10 +3149,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C33" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3165,10 +3168,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C34" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3184,10 +3187,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C35" t="n">
-        <v>15.7</v>
+        <v>11.9</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3249,10 +3252,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.70179780381</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
-        <v>10.296678571059</v>
+        <v>15.7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3268,10 +3271,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.912801029183</v>
+        <v>0.8</v>
       </c>
       <c r="C3" t="n">
-        <v>21.880200560139</v>
+        <v>15.7</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3287,10 +3290,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.885903670996</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>24.868462576785</v>
+        <v>15.7</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3306,10 +3309,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.727868101063</v>
+        <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>3.763599152711</v>
+        <v>15.7</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3325,10 +3328,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.431908146809</v>
+        <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>6.635476847929</v>
+        <v>15.7</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3344,10 +3347,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.994269705273</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>4.559949701541</v>
+        <v>15.7</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3363,10 +3366,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.033003614842</v>
+        <v>0.8</v>
       </c>
       <c r="C8" t="n">
-        <v>3.650595717278</v>
+        <v>15.7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3382,10 +3385,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.008297157096</v>
+        <v>0.8</v>
       </c>
       <c r="C9" t="n">
-        <v>5.537623371892</v>
+        <v>15.7</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3401,10 +3404,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.828234237744</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>6.632690200563</v>
+        <v>15.7</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3420,10 +3423,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.203260542289</v>
+        <v>0.8</v>
       </c>
       <c r="C11" t="n">
-        <v>2.016655523388</v>
+        <v>15.7</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3439,10 +3442,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.255684611193</v>
+        <v>0.8</v>
       </c>
       <c r="C12" t="n">
-        <v>5.836446991391</v>
+        <v>15.7</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3458,10 +3461,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3477,10 +3480,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.900208051391</v>
+        <v>0.8</v>
       </c>
       <c r="C14" t="n">
-        <v>16.27493192542</v>
+        <v>15.7</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3496,10 +3499,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.935004225548</v>
+        <v>0.8</v>
       </c>
       <c r="C15" t="n">
-        <v>8.783221028129001</v>
+        <v>15.7</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -3515,10 +3518,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.292797835025</v>
+        <v>0.8</v>
       </c>
       <c r="C16" t="n">
-        <v>5.722414507206</v>
+        <v>15.7</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -3534,10 +3537,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.264294606093</v>
+        <v>0.8</v>
       </c>
       <c r="C17" t="n">
-        <v>10.20499056547</v>
+        <v>15.7</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3553,10 +3556,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.877348880723</v>
+        <v>0.8</v>
       </c>
       <c r="C18" t="n">
-        <v>6.584127129136</v>
+        <v>15.7</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3572,10 +3575,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.086326162223</v>
+        <v>0.8</v>
       </c>
       <c r="C19" t="n">
-        <v>17.831986095087</v>
+        <v>15.7</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3591,10 +3594,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.602795956783</v>
+        <v>0.8</v>
       </c>
       <c r="C20" t="n">
-        <v>9.066451183926</v>
+        <v>15.7</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -3610,10 +3613,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.046888646976</v>
+        <v>0.8</v>
       </c>
       <c r="C21" t="n">
-        <v>7.446027371944</v>
+        <v>15.7</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3629,10 +3632,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.921403167672</v>
+        <v>0.8</v>
       </c>
       <c r="C22" t="n">
-        <v>19.876389962204</v>
+        <v>15.7</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -3648,10 +3651,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.262872904277</v>
+        <v>0.8</v>
       </c>
       <c r="C23" t="n">
-        <v>17.76790957815</v>
+        <v>15.7</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -3667,10 +3670,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.209678077252</v>
+        <v>0.8</v>
       </c>
       <c r="C24" t="n">
-        <v>14.52685264113</v>
+        <v>15.7</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -3686,10 +3689,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.188280019771</v>
+        <v>0.8</v>
       </c>
       <c r="C25" t="n">
-        <v>11.898159210155</v>
+        <v>15.7</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3705,10 +3708,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11.521456568215</v>
+        <v>0.8</v>
       </c>
       <c r="C26" t="n">
-        <v>6.408607878133</v>
+        <v>15.7</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3724,10 +3727,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.994690265487</v>
+        <v>0.8</v>
       </c>
       <c r="C27" t="n">
-        <v>7.470796460177</v>
+        <v>15.7</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3743,10 +3746,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.994690265487</v>
+        <v>0.8</v>
       </c>
       <c r="C28" t="n">
-        <v>7.470796460177</v>
+        <v>15.7</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3762,10 +3765,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.561635567418</v>
+        <v>0.8</v>
       </c>
       <c r="C29" t="n">
-        <v>2.389627444573</v>
+        <v>15.7</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3781,10 +3784,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.994690265487</v>
+        <v>0.8</v>
       </c>
       <c r="C30" t="n">
-        <v>7.470796460177</v>
+        <v>15.7</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3800,10 +3803,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.819869337975</v>
+        <v>0.8</v>
       </c>
       <c r="C31" t="n">
-        <v>6.926106787373</v>
+        <v>15.7</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3819,10 +3822,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.994690265487</v>
+        <v>0.8</v>
       </c>
       <c r="C32" t="n">
-        <v>7.470796460177</v>
+        <v>15.7</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3838,10 +3841,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3857,10 +3860,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.715597004453</v>
+        <v>0.8</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3876,10 +3879,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20.963610949203</v>
+        <v>0.8</v>
       </c>
       <c r="C35" t="n">
-        <v>13.079944754009</v>
+        <v>15.7</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3941,10 +3944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3960,10 +3963,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C3" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3979,10 +3982,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3998,10 +4001,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C5" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -4017,10 +4020,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C6" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -4036,10 +4039,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -4055,10 +4058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C8" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -4074,10 +4077,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -4093,10 +4096,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C10" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -4112,10 +4115,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C11" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4131,10 +4134,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C12" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -4150,10 +4153,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C13" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -4169,10 +4172,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C14" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -4188,10 +4191,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C15" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -4207,10 +4210,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C16" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4226,10 +4229,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C17" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -4245,10 +4248,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C18" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4264,10 +4267,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C19" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -4283,10 +4286,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C20" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -4302,10 +4305,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C21" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4321,10 +4324,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C22" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4340,10 +4343,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C23" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4359,10 +4362,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C24" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -4378,10 +4381,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C25" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -4397,10 +4400,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C26" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -4416,10 +4419,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C27" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -4435,10 +4438,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C28" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -4454,10 +4457,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C29" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -4473,10 +4476,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C30" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -4492,10 +4495,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C31" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -4511,10 +4514,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C32" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -4530,10 +4533,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C33" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -4549,10 +4552,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C34" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -4568,10 +4571,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.42092</v>
+        <v>0.8</v>
       </c>
       <c r="C35" t="n">
-        <v>2.97908</v>
+        <v>15.7</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -4633,6 +4636,2082 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C26" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Electricity [GJ/t]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Heat [GJ/t]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen [GJ/t]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max. subst. of heat with H2 [%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.70179780381</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.296678571059</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3.912801029183</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.880200560139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.885903670996</v>
+      </c>
+      <c r="C4" t="n">
+        <v>24.868462576785</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.727868101063</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.763599152711</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3.431908146809</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.635476847929</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>14.994269705273</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.559949701541</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.033003614842</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.650595717278</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.008297157096</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.537623371892</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.828234237744</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.632690200563</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.203260542289</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.016655523388</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3.255684611193</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.836446991391</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>16.900208051391</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16.27493192542</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3.935004225548</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.783221028129001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.292797835025</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.722414507206</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.264294606093</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10.20499056547</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.877348880723</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.584127129136</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.086326162223</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17.831986095087</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5.602795956783</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.066451183926</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3.046888646976</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.446027371944</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4.921403167672</v>
+      </c>
+      <c r="C22" t="n">
+        <v>19.876389962204</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6.262872904277</v>
+      </c>
+      <c r="C23" t="n">
+        <v>17.76790957815</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6.209678077252</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14.52685264113</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>14.188280019771</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11.898159210155</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11.521456568215</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.408607878133</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.994690265487</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7.470796460177</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2.994690265487</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.470796460177</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.561635567418</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.389627444573</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2.994690265487</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7.470796460177</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3.819869337975</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.926106787373</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.994690265487</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.470796460177</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2.715597004453</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>20.963610949203</v>
+      </c>
+      <c r="C35" t="n">
+        <v>13.079944754009</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Electricity [GJ/t]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Heat [GJ/t]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen [GJ/t]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max. subst. of heat with H2 [%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Czechia</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>North Macedonia</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Bosnia and Herzegovina</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.42092</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.97908</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Electricity [GJ/t]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Heat [GJ/t]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Hydrogen [GJ/t]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>max. subst. of heat with H2 [%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1.389896080003</v>
       </c>
       <c r="C2" t="n">
@@ -5325,10 +7404,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C2" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5344,10 +7423,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C3" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -5363,10 +7442,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C4" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5382,10 +7461,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C5" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -5401,10 +7480,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C6" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5420,10 +7499,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C7" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -5439,10 +7518,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C8" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5458,10 +7537,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -5477,10 +7556,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C10" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5496,10 +7575,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C11" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -5515,10 +7594,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C12" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5534,10 +7613,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C13" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -5553,10 +7632,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C14" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -5572,10 +7651,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C15" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -5591,10 +7670,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C16" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -5610,10 +7689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C17" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -5629,10 +7708,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C18" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -5648,10 +7727,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C19" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -5667,10 +7746,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C20" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -5686,10 +7765,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C21" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5705,10 +7784,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C22" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -5724,10 +7803,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C23" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -5743,10 +7822,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C24" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -5762,10 +7841,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C25" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -5781,10 +7860,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C26" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -5800,10 +7879,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C27" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -5819,10 +7898,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C28" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -5838,10 +7917,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C29" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -5857,10 +7936,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C30" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -5876,10 +7955,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C31" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -5895,10 +7974,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C32" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -5914,10 +7993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C33" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -5933,10 +8012,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C34" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -5952,10 +8031,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="C35" t="n">
-        <v>2.12</v>
+        <v>9</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -6017,10 +8096,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C2" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6036,10 +8115,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C3" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6055,10 +8134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C4" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -6074,10 +8153,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C5" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -6093,10 +8172,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C6" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -6112,10 +8191,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C7" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -6131,10 +8210,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C8" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -6150,10 +8229,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C9" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -6169,10 +8248,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C10" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -6188,10 +8267,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C11" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -6207,10 +8286,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C12" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6226,10 +8305,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C13" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -6245,10 +8324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C14" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -6264,10 +8343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C15" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -6283,10 +8362,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C16" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -6302,10 +8381,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C17" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -6321,10 +8400,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C18" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -6340,10 +8419,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C19" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -6359,10 +8438,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C20" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -6378,10 +8457,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C21" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -6397,10 +8476,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C22" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -6416,10 +8495,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C23" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -6435,10 +8514,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C24" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -6454,10 +8533,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C25" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -6473,10 +8552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C26" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -6492,10 +8571,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C27" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -6511,10 +8590,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C28" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -6530,10 +8609,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C29" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -6549,10 +8628,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C30" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -6568,10 +8647,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C31" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -6587,10 +8666,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C32" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -6606,10 +8685,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C33" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -6625,10 +8704,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C34" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -6644,10 +8723,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>52.2</v>
+        <v>8.17</v>
       </c>
       <c r="C35" t="n">
-        <v>3.27</v>
+        <v>15.48</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -6709,10 +8788,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6728,10 +8807,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6747,10 +8826,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -6766,10 +8845,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -6785,10 +8864,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -6804,10 +8883,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -6823,10 +8902,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -6842,10 +8921,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -6861,10 +8940,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -6880,10 +8959,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -6899,10 +8978,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -6918,10 +8997,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -6937,10 +9016,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -6956,10 +9035,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -6975,10 +9054,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -6994,10 +9073,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -7013,10 +9092,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -7032,10 +9111,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -7051,10 +9130,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -7070,10 +9149,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -7089,10 +9168,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -7108,10 +9187,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -7127,10 +9206,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -7146,10 +9225,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -7165,10 +9244,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -7184,10 +9263,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -7203,10 +9282,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -7222,10 +9301,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -7241,10 +9320,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -7260,10 +9339,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -7279,10 +9358,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -7298,10 +9377,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C33" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -7317,10 +9396,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C34" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -7336,10 +9415,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>11.52</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -7401,10 +9480,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C2" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7420,10 +9499,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C3" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7439,10 +9518,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C4" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -7458,10 +9537,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C5" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -7477,10 +9556,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C6" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7496,10 +9575,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C7" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7515,10 +9594,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C8" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7534,10 +9613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C9" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -7553,10 +9632,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C10" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -7572,10 +9651,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C11" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -7591,10 +9670,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C12" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -7610,10 +9689,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C13" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7629,10 +9708,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C14" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -7648,10 +9727,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C15" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -7667,10 +9746,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C16" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -7686,10 +9765,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C17" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -7705,10 +9784,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C18" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -7724,10 +9803,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C19" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -7743,10 +9822,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C20" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -7762,10 +9841,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C21" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -7781,10 +9860,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C22" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -7800,10 +9879,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C23" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -7819,10 +9898,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C24" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -7838,10 +9917,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C25" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -7857,10 +9936,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C26" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -7876,10 +9955,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C27" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -7895,10 +9974,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C28" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -7914,10 +9993,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C29" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -7933,10 +10012,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C30" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -7952,10 +10031,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C31" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -7971,10 +10050,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C32" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -7990,10 +10069,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C33" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -8009,10 +10088,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C34" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -8028,10 +10107,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.17</v>
+        <v>8.9</v>
       </c>
       <c r="C35" t="n">
-        <v>15.48</v>
+        <v>0.6</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -8093,13 +10172,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C2" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -8112,13 +10191,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C3" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -8131,13 +10210,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C4" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -8150,13 +10229,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C5" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -8169,13 +10248,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C6" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -8188,13 +10267,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C7" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -8207,13 +10286,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C8" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -8226,13 +10305,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C9" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -8245,13 +10324,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C10" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8264,13 +10343,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C11" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8283,13 +10362,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C12" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8302,13 +10381,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C13" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -8321,13 +10400,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C14" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8340,13 +10419,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C15" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -8359,13 +10438,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C16" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8378,13 +10457,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C17" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -8397,13 +10476,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C18" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8416,13 +10495,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C19" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -8435,13 +10514,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C20" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -8454,13 +10533,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C21" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -8473,13 +10552,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C22" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -8492,13 +10571,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C23" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -8511,13 +10590,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C24" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -8530,13 +10609,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C25" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -8549,13 +10628,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C26" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -8568,13 +10647,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C27" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -8587,13 +10666,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C28" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -8606,13 +10685,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C29" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -8625,13 +10704,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C30" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -8644,13 +10723,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C31" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -8663,13 +10742,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C32" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -8682,13 +10761,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C33" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -8701,13 +10780,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C34" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -8720,13 +10799,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.7</v>
+        <v>6.19</v>
       </c>
       <c r="C35" t="n">
-        <v>11.52</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>21.357864</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -8785,13 +10864,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -8804,13 +10883,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -8823,13 +10902,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -8842,13 +10921,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -8861,13 +10940,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -8880,13 +10959,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -8899,13 +10978,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -8918,13 +10997,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -8937,13 +11016,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8956,13 +11035,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -8975,13 +11054,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8994,13 +11073,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9013,13 +11092,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9032,13 +11111,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9051,13 +11130,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9070,13 +11149,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -9089,13 +11168,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -9108,13 +11187,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -9127,13 +11206,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -9146,13 +11225,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -9165,13 +11244,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -9184,13 +11263,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -9203,13 +11282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -9222,13 +11301,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -9241,13 +11320,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -9260,13 +11339,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -9279,13 +11358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -9298,13 +11377,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -9317,13 +11396,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -9336,13 +11415,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -9355,13 +11434,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -9374,13 +11453,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -9393,13 +11472,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -9412,13 +11491,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>22.677732</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -9477,13 +11556,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C2" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -9496,13 +11575,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C3" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -9515,13 +11594,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C4" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -9534,13 +11613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C5" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -9553,13 +11632,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C6" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -9572,13 +11651,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C7" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -9591,13 +11670,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C8" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -9610,13 +11689,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C9" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9629,13 +11708,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C10" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -9648,13 +11727,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C11" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -9667,13 +11746,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C12" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -9686,13 +11765,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C13" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9705,13 +11784,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C14" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9724,13 +11803,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C15" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9743,13 +11822,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C16" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -9762,13 +11841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C17" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -9781,13 +11860,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C18" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -9800,13 +11879,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C19" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -9819,13 +11898,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C20" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -9838,13 +11917,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C21" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -9857,13 +11936,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C22" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -9876,13 +11955,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C23" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -9895,13 +11974,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -9914,13 +11993,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C25" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -9933,13 +12012,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C26" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -9952,13 +12031,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C27" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -9971,13 +12050,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C28" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -9990,13 +12069,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C29" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -10009,13 +12088,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C30" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -10028,13 +12107,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C31" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -10047,13 +12126,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C32" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -10066,13 +12145,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C33" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -10085,13 +12164,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C34" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -10104,13 +12183,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.74</v>
+        <v>14.418</v>
       </c>
       <c r="C35" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -10169,13 +12248,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C2" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -10188,13 +12267,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -10207,13 +12286,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C4" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -10226,13 +12305,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -10245,13 +12324,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -10264,13 +12343,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C7" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -10283,13 +12362,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C8" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -10302,13 +12381,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C9" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10321,13 +12400,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C10" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -10340,13 +12419,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C11" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -10359,13 +12438,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C12" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -10378,13 +12457,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C13" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -10397,13 +12476,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C14" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -10416,13 +12495,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C15" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -10435,13 +12514,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C16" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -10454,13 +12533,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C17" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -10473,13 +12552,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C18" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -10492,13 +12571,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C19" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -10511,13 +12590,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C20" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -10530,13 +12609,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C21" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -10549,13 +12628,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C22" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -10568,13 +12647,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C23" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -10587,13 +12666,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C24" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -10606,13 +12685,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C25" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -10625,13 +12704,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C26" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -10644,13 +12723,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C27" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -10663,13 +12742,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C28" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -10682,13 +12761,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C29" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -10701,13 +12780,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C30" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -10720,13 +12799,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C31" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -10739,13 +12818,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C32" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -10758,13 +12837,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C33" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -10777,13 +12856,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C34" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -10796,13 +12875,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6</v>
+        <v>14.418</v>
       </c>
       <c r="C35" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>60.54954444</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
